--- a/web_parser/OpenData/data_explained.xlsx
+++ b/web_parser/OpenData/data_explained.xlsx
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CZ1" sqref="CZ1:CZ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="CW1" workbookViewId="0">
+      <selection activeCell="DI2" sqref="DI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web_parser/OpenData/data_explained.xlsx
+++ b/web_parser/OpenData/data_explained.xlsx
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CW1" workbookViewId="0">
-      <selection activeCell="DI2" sqref="DI2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
